--- a/01_Input/00_CO Validation/Indonesia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Indonesia - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_5E2291AF6514A09EC6E1AA69F27A1135B06B1CFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F5307E3-5F08-4DA3-AE4B-1CB1983247E4}"/>
+  <xr:revisionPtr revIDLastSave="267" documentId="11_5E2291AF6514A09EC6E1AA69F27A1135B06B1CFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E6BB48B-BD8C-4C26-BCDE-AAD843FD7150}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="115">
   <si>
     <t>Project ID</t>
   </si>
@@ -208,7 +211,7 @@
     <t>PIMS+</t>
   </si>
   <si>
-    <t>Other Energy Services</t>
+    <t>Transport Services</t>
   </si>
   <si>
     <t>Number of direct project beneficiaries disaggregated by gender (individual people) [GEF core indicator]</t>
@@ -272,6 +275,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
   </si>
   <si>
     <t>Commensts</t>
@@ -544,7 +550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -619,6 +625,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,7 +679,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -668,6 +720,75 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -706,42 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1050,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518C8F51-08F6-47E6-92E7-B434FA427851}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1063,349 +1148,351 @@
     <col min="6" max="6" width="64.7109375" style="6" customWidth="1"/>
     <col min="7" max="8" width="36.7109375" style="6" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="6"/>
+    <col min="10" max="14" width="9.140625" style="6"/>
+    <col min="15" max="15" width="11.42578125" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="72.75" customHeight="1">
-      <c r="A2" s="31">
+      <c r="A2" s="37">
         <v>126434</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="18">
         <v>15028509</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="19">
         <v>0</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36" t="s">
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="P2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="60.75">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="33" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="19">
         <v>0</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="19">
         <v>50</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="38">
+      <c r="J3" s="21"/>
+      <c r="K3" s="24">
         <v>0.3</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
     </row>
     <row r="4" spans="1:20" ht="60.75">
       <c r="A4" s="31"/>
       <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="33" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="19">
         <v>0</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="23">
         <v>21</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36" t="s">
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
     </row>
     <row r="5" spans="1:20" ht="60.75">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="23">
         <v>0</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="23">
         <v>600</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36" t="s">
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="36"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
     </row>
     <row r="6" spans="1:20" ht="60.75">
-      <c r="A6" s="31">
+      <c r="A6" s="37">
         <v>142434</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="18">
         <v>1796132</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="23">
         <v>0</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="19">
         <v>10</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="31" t="s">
+      <c r="I6" s="19"/>
+      <c r="J6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="60.75">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="33" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="23">
         <v>0</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="23">
         <v>329</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="60.75">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="33" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="23">
         <v>0</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="23">
         <v>350</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36" t="s">
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-    </row>
-    <row r="9" spans="1:20" ht="60.75">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:20" ht="45.75">
       <c r="A9" s="36">
         <v>6333</v>
       </c>
@@ -1418,170 +1505,170 @@
       <c r="D9" s="36">
         <v>1816500</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="19">
         <v>0</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="25">
         <v>643224</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="36" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="24">
         <v>0.24</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
     </row>
     <row r="10" spans="1:20" ht="91.5">
-      <c r="A10" s="31">
+      <c r="A10" s="37">
         <v>5721</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="18">
         <v>2633372</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="19">
         <v>125</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="31" t="s">
+      <c r="I10" s="19"/>
+      <c r="J10" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="24">
         <v>0.34</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36" t="s">
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="P10" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
     </row>
     <row r="11" spans="1:20" ht="60.75">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="33" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="26">
         <v>6</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="19">
         <v>10</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36" t="s">
+      <c r="J11" s="18"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
     </row>
     <row r="12" spans="1:20" ht="60.75">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>4673</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>8025000</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36" t="s">
+      <c r="K12" s="22"/>
+      <c r="L12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="P12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="9"/>
@@ -1701,16 +1788,16 @@
       <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="72.75" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="39">
         <v>126434</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="39">
         <v>15028509</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1728,7 +1815,7 @@
       <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="41" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -1742,10 +1829,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="60.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
@@ -1761,7 +1848,7 @@
       <c r="I3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="14">
         <v>0.3</v>
       </c>
@@ -1776,10 +1863,10 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="60.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
@@ -1795,7 +1882,7 @@
       <c r="I4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="42"/>
       <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
@@ -1807,10 +1894,10 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
@@ -1826,7 +1913,7 @@
       <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="43"/>
       <c r="L5" s="6" t="s">
         <v>26</v>
       </c>
@@ -1838,16 +1925,16 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="60.75">
-      <c r="A6" s="16">
+      <c r="A6" s="39">
         <v>142434</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="39">
         <v>1796132</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1863,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -1877,10 +1964,10 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="60.75">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1894,7 +1981,7 @@
         <v>329</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="21"/>
+      <c r="J7" s="44"/>
       <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
@@ -1912,10 +1999,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="60.75">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
@@ -1929,7 +2016,7 @@
         <v>350</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="17"/>
+      <c r="J8" s="40"/>
       <c r="L8" s="6" t="s">
         <v>26</v>
       </c>
@@ -1954,7 +2041,7 @@
         <v>1816500</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>50</v>
@@ -1981,16 +2068,16 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="91.5">
-      <c r="A10" s="16">
+      <c r="A10" s="39">
         <v>5721</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="39">
         <v>2633372</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2006,7 +2093,7 @@
         <v>125</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="39" t="s">
         <v>51</v>
       </c>
       <c r="K10" s="14">
@@ -2023,10 +2110,10 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="60.75">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2040,7 +2127,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="40"/>
       <c r="L11" s="6" t="s">
         <v>52</v>
       </c>
@@ -2203,23 +2290,23 @@
         <v>8</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="72.75" customHeight="1">
-      <c r="A2" s="16">
+      <c r="A2" s="39">
         <v>126434</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="39">
         <v>15028509</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2232,21 +2319,21 @@
         <v>63</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
@@ -2257,18 +2344,18 @@
         <v>65</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="30.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
@@ -2279,18 +2366,18 @@
         <v>66</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45.75">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="4" t="s">
         <v>34</v>
       </c>
@@ -2301,26 +2388,26 @@
         <v>68</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75">
-      <c r="A6" s="16">
+      <c r="A6" s="39">
         <v>142434</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="39">
         <v>1796132</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="39" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -2333,18 +2420,18 @@
         <v>68</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="4" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>43</v>
@@ -2353,16 +2440,16 @@
         <v>68</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
@@ -2373,7 +2460,7 @@
         <v>68</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -2394,33 +2481,33 @@
         <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="91.5">
-      <c r="A10" s="16">
+      <c r="A10" s="39">
         <v>5721</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="39">
         <v>2633372</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="39" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -2433,16 +2520,16 @@
         <v>55</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:11" ht="45.75">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="4" t="s">
         <v>31</v>
       </c>
@@ -2453,7 +2540,7 @@
         <v>57</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -2483,7 +2570,7 @@
         <v>60</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>62</v>
@@ -2494,21 +2581,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2543,160 +2630,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
-        <v>86</v>
+      <c r="A2" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25"/>
+      <c r="A3" s="48"/>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="48"/>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26" t="s">
-        <v>92</v>
+      <c r="A5" s="49" t="s">
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="49"/>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="49"/>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="49"/>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="49"/>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="27" t="s">
-        <v>102</v>
+      <c r="A10" s="50" t="s">
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
+      <c r="A11" s="50"/>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="28" t="s">
-        <v>106</v>
+      <c r="A12" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="28"/>
+      <c r="A13" s="51"/>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="28"/>
+      <c r="A14" s="51"/>
       <c r="B14" t="s">
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2711,12 +2798,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Verania Andria</DisplayName>
+        <AccountId>1156</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Sujala Pant</DisplayName>
+        <AccountId>1225</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Akiko Yamamoto</DisplayName>
+        <AccountId>84</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2969,40 +3080,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Verania Andria</DisplayName>
-        <AccountId>1156</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Sujala Pant</DisplayName>
-        <AccountId>1225</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Akiko Yamamoto</DisplayName>
-        <AccountId>84</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D7830B-D252-4AE4-BDBD-976B65B8A87C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2031F88-137D-4398-9974-44E9D22D0D48}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3010,5 +3097,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2031F88-137D-4398-9974-44E9D22D0D48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2D7830B-D252-4AE4-BDBD-976B65B8A87C}"/>
 </file>